--- a/document/site_accounts.xlsx
+++ b/document/site_accounts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="prod" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
   <si>
     <t>EMA</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -207,6 +207,22 @@
   </si>
   <si>
     <t>UAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>907729@avnet.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1qazxsw2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Window Domin Password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -635,17 +651,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -693,15 +709,36 @@
         <v>5</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3">
+        <v>907729</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
     <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B6" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -709,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/document/site_accounts.xlsx
+++ b/document/site_accounts.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="prod" sheetId="1" r:id="rId1"/>
     <sheet name="UAT" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Dev2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="33">
   <si>
     <t>EMA</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,82 +59,6 @@
   </si>
   <si>
     <t>nick.liu@avnet.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cactus1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chili1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>caddo1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>caddo2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>caddo3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cayuga1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cayuga2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cayuga3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chicago1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chicago2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>charlotte1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>charlotte2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>charlotte3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>corinth1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>checotah1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>checotah2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>calais1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>calais2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>calais3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -651,16 +575,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="22.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
@@ -711,13 +635,13 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -726,7 +650,62 @@
         <v>907729</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>50</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -736,9 +715,13 @@
     <hyperlink ref="B3" r:id="rId2"/>
     <hyperlink ref="B4" r:id="rId3"/>
     <hyperlink ref="B6" r:id="rId4"/>
+    <hyperlink ref="B10" r:id="rId5"/>
+    <hyperlink ref="B11" r:id="rId6"/>
+    <hyperlink ref="B12" r:id="rId7"/>
+    <hyperlink ref="B13" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -747,7 +730,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,15 +743,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -776,12 +759,12 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>2</v>
@@ -792,7 +775,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>10</v>
@@ -803,7 +786,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -814,7 +797,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -825,7 +808,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -836,35 +819,35 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -885,113 +868,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A20"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/document/site_accounts.xlsx
+++ b/document/site_accounts.xlsx
@@ -9,14 +9,14 @@
   <sheets>
     <sheet name="prod" sheetId="1" r:id="rId1"/>
     <sheet name="UAT" sheetId="2" r:id="rId2"/>
-    <sheet name="Dev2" sheetId="3" r:id="rId3"/>
+    <sheet name="DP" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="41">
   <si>
     <t>EMA</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,6 +147,38 @@
   </si>
   <si>
     <t>SCC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>907729@uat1.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1qazxsw2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>907729@uat2.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>907729@test4.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>907729@test3.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>907729@test2.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>907729@dev3.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>907729@dev2.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -730,7 +762,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -868,19 +900,85 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A21"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A8" r:id="rId6"/>
+    <hyperlink ref="A9" r:id="rId7"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/document/site_accounts.xlsx
+++ b/document/site_accounts.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="26">
   <si>
     <t>EMA</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,11 +90,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EMA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>907729@ema-uat.com</t>
+    <t>avu93db.avnet.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>907729@avnet.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -102,83 +106,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EMEA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>907729@emea-uat.com</t>
+    <t>Window Domin Password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nick@uat1.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1qazxsw2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ASIA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>907729@aisa-uat.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1qazxsw2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>avu93db.avnet.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UAT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>907729@avnet.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1qazxsw2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Window Domin Password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>907729@uat1.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1qazxsw2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>907729@uat2.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>907729@test4.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>907729@test3.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>907729@test2.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>907729@dev3.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>907729@dev2.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -667,13 +607,13 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -682,7 +622,7 @@
         <v>907729</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -762,7 +702,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -783,7 +723,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -791,7 +731,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -850,37 +790,18 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>18</v>
+      <c r="A11" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="B12" s="9"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="B13" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -889,12 +810,10 @@
     <hyperlink ref="B7" r:id="rId2"/>
     <hyperlink ref="B8" r:id="rId3"/>
     <hyperlink ref="B9" r:id="rId4"/>
-    <hyperlink ref="B11" r:id="rId5"/>
-    <hyperlink ref="B12" r:id="rId6"/>
-    <hyperlink ref="B13" r:id="rId7"/>
+    <hyperlink ref="A11" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -903,7 +822,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -912,73 +831,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" t="s">
-        <v>34</v>
-      </c>
+      <c r="A1" s="9"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" t="s">
-        <v>34</v>
-      </c>
+      <c r="A4" s="9"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" t="s">
-        <v>34</v>
-      </c>
+      <c r="A5" s="9"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
+      <c r="A6" s="9"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" t="s">
-        <v>34</v>
-      </c>
+      <c r="A8" s="9"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" t="s">
-        <v>34</v>
-      </c>
+      <c r="A9" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A5" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
-    <hyperlink ref="A8" r:id="rId6"/>
-    <hyperlink ref="A9" r:id="rId7"/>
+    <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/document/site_accounts.xlsx
+++ b/document/site_accounts.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="35">
   <si>
     <t>EMA</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,6 +119,42 @@
   </si>
   <si>
     <t>1qazxsw2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nick@uat2.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1qazxsw2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nick@test4.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nick@test3.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nick@test2.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nick@test1.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nick@preprod.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nick@dev2.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nick@dev3.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -550,7 +586,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -819,10 +855,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -831,7 +867,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="9"/>
+      <c r="A1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
@@ -841,27 +882,79 @@
         <v>25</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+    </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="9"/>
+      <c r="A4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="9"/>
+      <c r="A5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="9"/>
+      <c r="A6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="9"/>
+      <c r="A8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="9"/>
+      <c r="A9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A7" r:id="rId3"/>
+    <hyperlink ref="A6" r:id="rId4"/>
+    <hyperlink ref="A5" r:id="rId5"/>
+    <hyperlink ref="A4" r:id="rId6"/>
+    <hyperlink ref="A1" r:id="rId7"/>
+    <hyperlink ref="A8" r:id="rId8"/>
+    <hyperlink ref="A9" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
--- a/document/site_accounts.xlsx
+++ b/document/site_accounts.xlsx
@@ -9,14 +9,15 @@
   <sheets>
     <sheet name="prod" sheetId="1" r:id="rId1"/>
     <sheet name="UAT" sheetId="2" r:id="rId2"/>
-    <sheet name="DP" sheetId="3" r:id="rId3"/>
+    <sheet name="LDAP" sheetId="4" r:id="rId3"/>
+    <sheet name="DP" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="47">
   <si>
     <t>EMA</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,6 +156,53 @@
   </si>
   <si>
     <t>nick@dev3.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nick@prod.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1qazxsw2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>907729/1qazxsw2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://diexp-test4.avnet.com/webapp/wcs/orgadmin/servlet/ToolsLogon?XMLFile=buyerconsole.BuyAdminConsoleLogon&amp;storeId=0</t>
+  </si>
+  <si>
+    <t>https://diexp-test3.avnet.com/webapp/wcs/orgadmin/servlet/ToolsLogon?XMLFile=buyerconsole.BuyAdminConsoleLogon&amp;storeId=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tivoli01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Windows domain password</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -735,17 +783,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="133.75" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -826,18 +874,33 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>25</v>
-      </c>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="9"/>
+      <c r="A13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -846,7 +909,7 @@
     <hyperlink ref="B7" r:id="rId2"/>
     <hyperlink ref="B8" r:id="rId3"/>
     <hyperlink ref="B9" r:id="rId4"/>
-    <hyperlink ref="A11" r:id="rId5"/>
+    <hyperlink ref="C13" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
@@ -855,10 +918,63 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1">
+        <v>907729</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2">
+        <v>907729</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3">
+        <v>907729</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -868,31 +984,31 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
@@ -900,7 +1016,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
@@ -908,7 +1024,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
@@ -916,7 +1032,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
         <v>27</v>
@@ -924,7 +1040,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
         <v>27</v>
@@ -932,29 +1048,38 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="9"/>
+      <c r="A10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A7" r:id="rId3"/>
-    <hyperlink ref="A6" r:id="rId4"/>
-    <hyperlink ref="A5" r:id="rId5"/>
-    <hyperlink ref="A4" r:id="rId6"/>
-    <hyperlink ref="A1" r:id="rId7"/>
-    <hyperlink ref="A8" r:id="rId8"/>
-    <hyperlink ref="A9" r:id="rId9"/>
+    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="A4" r:id="rId2"/>
+    <hyperlink ref="A8" r:id="rId3"/>
+    <hyperlink ref="A7" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A5" r:id="rId6"/>
+    <hyperlink ref="A2" r:id="rId7"/>
+    <hyperlink ref="A9" r:id="rId8"/>
+    <hyperlink ref="A10" r:id="rId9"/>
+    <hyperlink ref="A1" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>